--- a/data/gamer stat percentages by country, age, gender/hours_per_week_by_age_group.xlsx
+++ b/data/gamer stat percentages by country, age, gender/hours_per_week_by_age_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcbie\RICE_BOOTCAMP\Working Folder\Project_Two\Project-2\data\gamer stat percentages by country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcbie\RICE_BOOTCAMP\Working Folder\Project_Two\Project-2\data\gamer stat percentages by country, age, gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0208F631-870C-45A8-B216-2110BE309F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22719B0A-A103-4898-8780-19DC00645215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CD3627BB-3719-4326-9D8A-9E1E4FB1B7F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CD3627BB-3719-4326-9D8A-9E1E4FB1B7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,30 +39,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Less than 1 hour a week</t>
-  </si>
-  <si>
-    <t>2-4 hours a week</t>
-  </si>
-  <si>
-    <t>1-2 hours a week</t>
-  </si>
-  <si>
-    <t>4-7 hours a week</t>
-  </si>
-  <si>
-    <t>7-12 hours a week</t>
-  </si>
-  <si>
-    <t>12-20 hours a week</t>
-  </si>
-  <si>
-    <t>More than 20 hours a week</t>
-  </si>
-  <si>
-    <t>Average Hours Each Week</t>
-  </si>
-  <si>
     <t>18-25</t>
   </si>
   <si>
@@ -79,6 +55,30 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>&lt; 1 hour</t>
+  </si>
+  <si>
+    <t>1-2 hours</t>
+  </si>
+  <si>
+    <t>2-4 hours</t>
+  </si>
+  <si>
+    <t>4-7 hours</t>
+  </si>
+  <si>
+    <t>7-12 hours</t>
+  </si>
+  <si>
+    <t>12-20 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20+ hours </t>
+  </si>
+  <si>
+    <t>avg hours</t>
   </si>
 </sst>
 </file>
@@ -444,37 +444,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9709DBF0-1B58-45BC-800D-98B4815A5A96}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -490,7 +492,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>9.4E-2</v>
@@ -530,7 +532,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>0.10100000000000001</v>
@@ -569,7 +571,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>0.12</v>
@@ -608,7 +610,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>0.19400000000000001</v>
@@ -647,7 +649,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>0.215</v>
@@ -686,7 +688,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>0.14899999999999999</v>
